--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Reproducible-Research-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D547367D-598F-4869-847C-25045B098F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8B4F3A-45F1-40B3-A959-FCA2365F675D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{763F8A21-6C0E-4399-98DD-8A73451B86F8}"/>
   </bookViews>
   <sheets>
-    <sheet name="World_Development_Indicators.xl" sheetId="2" r:id="rId1"/>
+    <sheet name="World_Development_Indicators" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="34">
   <si>
     <t>2015 [YR2015]</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>HDI</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5376AE3C-CE0F-4A40-A13F-88C509B3840E}">
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="L150" sqref="L150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,7 +500,7 @@
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -519,8 +522,11 @@
       <c r="G1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -542,8 +548,11 @@
       <c r="G2">
         <v>62952639</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -565,8 +574,11 @@
       <c r="G3">
         <v>63539190</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -588,8 +600,11 @@
       <c r="G4">
         <v>64069093</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>0.66900000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -611,8 +626,11 @@
       <c r="G5">
         <v>64549867</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="G6">
         <v>64995303</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -657,8 +678,11 @@
       <c r="G7">
         <v>65416189</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -680,8 +704,11 @@
       <c r="G8">
         <v>65812540</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -703,8 +730,11 @@
       <c r="G9">
         <v>66182064</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -726,8 +756,11 @@
       <c r="G10">
         <v>66530980</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -749,8 +782,11 @@
       <c r="G11">
         <v>66866834</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -772,8 +808,11 @@
       <c r="G12">
         <v>67195032</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -795,8 +834,11 @@
       <c r="G13">
         <v>67518379</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -818,8 +860,11 @@
       <c r="G14">
         <v>67835969</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -841,8 +886,11 @@
       <c r="G15">
         <v>68144519</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>0.73399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -864,8 +912,11 @@
       <c r="G16">
         <v>68438748</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -887,8 +938,11 @@
       <c r="G17">
         <v>68714519</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -910,8 +964,11 @@
       <c r="G18">
         <v>23194252</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -933,8 +990,11 @@
       <c r="G19">
         <v>23709115</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -956,8 +1016,11 @@
       <c r="G20">
         <v>24208391</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -979,8 +1042,11 @@
       <c r="G21">
         <v>24698821</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1002,8 +1068,11 @@
       <c r="G22">
         <v>25190647</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1025,8 +1094,11 @@
       <c r="G23">
         <v>25690615</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1048,8 +1120,11 @@
       <c r="G24">
         <v>26201954</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1071,8 +1146,11 @@
       <c r="G25">
         <v>26720367</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>0.73099999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1094,8 +1172,11 @@
       <c r="G26">
         <v>27236003</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>0.73799999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1117,8 +1198,11 @@
       <c r="G27">
         <v>27735038</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1140,8 +1224,11 @@
       <c r="G28">
         <v>28208028</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1163,8 +1250,11 @@
       <c r="G29">
         <v>28650962</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1186,8 +1276,11 @@
       <c r="G30">
         <v>29068189</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>0.77100000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1209,8 +1302,11 @@
       <c r="G31">
         <v>29468923</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>0.77900000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1232,8 +1328,11 @@
       <c r="G32">
         <v>29866606</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>0.78900000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1255,8 +1354,11 @@
       <c r="G33">
         <v>30270965</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>0.78900000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -1278,8 +1380,11 @@
       <c r="G34">
         <v>4027887</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -1301,8 +1406,11 @@
       <c r="G35">
         <v>4138012</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -1324,8 +1432,11 @@
       <c r="G36">
         <v>4175950</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1347,8 +1458,11 @@
       <c r="G37">
         <v>4114826</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>0.84199999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -1370,8 +1484,11 @@
       <c r="G38">
         <v>4166664</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -1393,8 +1510,11 @@
       <c r="G39">
         <v>4265762</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -1416,8 +1536,11 @@
       <c r="G40">
         <v>4401365</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -1439,8 +1562,11 @@
       <c r="G41">
         <v>4588599</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -1462,8 +1588,11 @@
       <c r="G42">
         <v>4839396</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -1485,8 +1614,11 @@
       <c r="G43">
         <v>4987573</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -1508,8 +1640,11 @@
       <c r="G44">
         <v>5076732</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -1531,8 +1666,11 @@
       <c r="G45">
         <v>5183688</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -1554,8 +1692,11 @@
       <c r="G46">
         <v>5312437</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1718,11 @@
       <c r="G47">
         <v>5399162</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -1600,8 +1744,11 @@
       <c r="G48">
         <v>5469724</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -1623,8 +1770,11 @@
       <c r="G49">
         <v>5535002</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>0.93100000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -1646,8 +1796,11 @@
       <c r="G50">
         <v>333166</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>0.80200000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -1669,8 +1822,11 @@
       <c r="G51">
         <v>340037</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -1692,8 +1848,11 @@
       <c r="G52">
         <v>346777</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>0.80700000000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -1715,8 +1874,11 @@
       <c r="G53">
         <v>353295</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <v>0.81299999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -1738,8 +1900,11 @@
       <c r="G54">
         <v>359434</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -1761,8 +1926,11 @@
       <c r="G55">
         <v>365112</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <v>0.82199999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -1784,8 +1952,11 @@
       <c r="G56">
         <v>370262</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -1807,8 +1978,11 @@
       <c r="G57">
         <v>374967</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -1830,8 +2004,11 @@
       <c r="G58">
         <v>379418</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -1853,8 +2030,11 @@
       <c r="G59">
         <v>383902</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -1876,8 +2056,11 @@
       <c r="G60">
         <v>388634</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -1899,8 +2082,11 @@
       <c r="G61">
         <v>393687</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -1922,8 +2108,11 @@
       <c r="G62">
         <v>398997</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -1945,8 +2134,11 @@
       <c r="G63">
         <v>404414</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -1968,8 +2160,11 @@
       <c r="G64">
         <v>409778</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -1991,8 +2186,11 @@
       <c r="G65">
         <v>414914</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65">
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -2014,8 +2212,11 @@
       <c r="G66">
         <v>79910411</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -2037,8 +2238,11 @@
       <c r="G67">
         <v>80742500</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -2060,8 +2264,11 @@
       <c r="G68">
         <v>81534406</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -2083,8 +2290,11 @@
       <c r="G69">
         <v>82301650</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -2106,8 +2316,11 @@
       <c r="G70">
         <v>83062819</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -2129,8 +2342,11 @@
       <c r="G71">
         <v>83832662</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -2152,8 +2368,11 @@
       <c r="G72">
         <v>84617545</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -2175,8 +2394,11 @@
       <c r="G73">
         <v>85419588</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -2198,8 +2420,11 @@
       <c r="G74">
         <v>86243424</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <v>0.64700000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -2221,8 +2446,11 @@
       <c r="G75">
         <v>87092250</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75">
+        <v>0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -2244,8 +2472,11 @@
       <c r="G76">
         <v>87967655</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76">
+        <v>0.66100000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -2267,8 +2498,11 @@
       <c r="G77">
         <v>88871384</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <v>0.67100000000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -2290,8 +2524,11 @@
       <c r="G78">
         <v>89801926</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78">
+        <v>0.67600000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -2313,8 +2550,11 @@
       <c r="G79">
         <v>90752593</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -2336,8 +2576,11 @@
       <c r="G80">
         <v>91713850</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80">
+        <v>0.68300000000000005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>21</v>
       </c>
@@ -2359,8 +2602,11 @@
       <c r="G81">
         <v>92677082</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81">
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -2382,8 +2628,11 @@
       <c r="G82">
         <v>46719698</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -2405,8 +2654,11 @@
       <c r="G83">
         <v>47225119</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83">
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -2428,8 +2680,11 @@
       <c r="G84">
         <v>47702163</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2451,8 +2706,11 @@
       <c r="G85">
         <v>48148907</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -2474,8 +2732,11 @@
       <c r="G86">
         <v>48564489</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86">
+        <v>0.45200000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -2497,8 +2758,11 @@
       <c r="G87">
         <v>48949931</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87">
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -2520,8 +2784,11 @@
       <c r="G88">
         <v>49301049</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -2543,8 +2810,11 @@
       <c r="G89">
         <v>49621479</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89">
+        <v>0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -2566,8 +2836,11 @@
       <c r="G90">
         <v>49929642</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -2589,8 +2862,11 @@
       <c r="G91">
         <v>50250366</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -2612,8 +2888,11 @@
       <c r="G92">
         <v>50600827</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -2635,8 +2914,11 @@
       <c r="G93">
         <v>50990612</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -2658,8 +2940,11 @@
       <c r="G94">
         <v>51413703</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94">
+        <v>0.53300000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -2681,8 +2966,11 @@
       <c r="G95">
         <v>51852464</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95">
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -2704,8 +2992,11 @@
       <c r="G96">
         <v>52280816</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -2727,8 +3018,11 @@
       <c r="G97">
         <v>52680724</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -2750,8 +3044,11 @@
       <c r="G98">
         <v>77991757</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -2773,8 +3070,11 @@
       <c r="G99">
         <v>79672869</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -2796,8 +3096,11 @@
       <c r="G100">
         <v>81365260</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>19</v>
       </c>
@@ -2819,8 +3122,11 @@
       <c r="G101">
         <v>83051970</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101">
+        <v>0.64200000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -2842,8 +3148,11 @@
       <c r="G102">
         <v>84710544</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -2865,8 +3174,11 @@
       <c r="G103">
         <v>86326251</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -2888,8 +3200,11 @@
       <c r="G104">
         <v>87888675</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104">
+        <v>0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -2911,8 +3226,11 @@
       <c r="G105">
         <v>89405482</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105">
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -2934,8 +3252,11 @@
       <c r="G106">
         <v>90901967</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106">
+        <v>0.66600000000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -2957,8 +3278,11 @@
       <c r="G107">
         <v>92414161</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -2980,8 +3304,11 @@
       <c r="G108">
         <v>93966784</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108">
+        <v>0.67100000000000004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -3003,8 +3330,11 @@
       <c r="G109">
         <v>95570049</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109">
+        <v>0.67600000000000005</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -3026,8 +3356,11 @@
       <c r="G110">
         <v>97212639</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110">
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -3049,8 +3382,11 @@
       <c r="G111">
         <v>98871558</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -3072,8 +3408,11 @@
       <c r="G112">
         <v>100513137</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112">
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -3095,8 +3434,11 @@
       <c r="G113">
         <v>102113206</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>18</v>
       </c>
@@ -3118,8 +3460,11 @@
       <c r="G114">
         <v>12155241</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -3141,8 +3486,11 @@
       <c r="G115">
         <v>12405411</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>18</v>
       </c>
@@ -3164,8 +3512,11 @@
       <c r="G116">
         <v>12637719</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>18</v>
       </c>
@@ -3187,8 +3538,11 @@
       <c r="G117">
         <v>12856171</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>18</v>
       </c>
@@ -3210,8 +3564,11 @@
       <c r="G118">
         <v>13066475</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118">
+        <v>0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -3233,8 +3590,11 @@
       <c r="G119">
         <v>13273355</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H119">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>18</v>
       </c>
@@ -3256,8 +3616,11 @@
       <c r="G120">
         <v>13477705</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H120">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -3279,8 +3642,11 @@
       <c r="G121">
         <v>13679953</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H121">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -3302,8 +3668,11 @@
       <c r="G122">
         <v>13883835</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H122">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>18</v>
       </c>
@@ -3325,8 +3694,11 @@
       <c r="G123">
         <v>14093605</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H123">
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>18</v>
       </c>
@@ -3348,8 +3720,11 @@
       <c r="G124">
         <v>14312205</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H124">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>18</v>
       </c>
@@ -3371,8 +3746,11 @@
       <c r="G125">
         <v>14541421</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H125">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>18</v>
       </c>
@@ -3394,8 +3772,11 @@
       <c r="G126">
         <v>14780454</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H126">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>18</v>
       </c>
@@ -3417,8 +3798,11 @@
       <c r="G127">
         <v>15026330</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H127">
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>18</v>
       </c>
@@ -3440,8 +3824,11 @@
       <c r="G128">
         <v>15274506</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H128">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>18</v>
       </c>
@@ -3463,8 +3850,11 @@
       <c r="G129">
         <v>15521435</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H129">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -3486,8 +3876,11 @@
       <c r="G130">
         <v>211513822</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H130">
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -3509,8 +3902,11 @@
       <c r="G131">
         <v>214427419</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H131">
+        <v>0.60899999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -3532,8 +3928,11 @@
       <c r="G132">
         <v>217357790</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H132">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -3555,8 +3954,11 @@
       <c r="G133">
         <v>220309473</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H133">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -3578,8 +3980,11 @@
       <c r="G134">
         <v>223285666</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H134">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -3601,8 +4006,11 @@
       <c r="G135">
         <v>226289468</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H135">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -3624,8 +4032,11 @@
       <c r="G136">
         <v>229318262</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H136">
+        <v>0.64200000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -3647,8 +4058,11 @@
       <c r="G137">
         <v>232374239</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H137">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -3670,8 +4084,11 @@
       <c r="G138">
         <v>235469755</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H138">
+        <v>0.64700000000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -3693,8 +4110,11 @@
       <c r="G139">
         <v>238620554</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H139">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -3716,8 +4136,11 @@
       <c r="G140">
         <v>241834226</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H140">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -3739,8 +4162,11 @@
       <c r="G141">
         <v>245115988</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H141">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -3762,8 +4188,11 @@
       <c r="G142">
         <v>248451714</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H142">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -3785,8 +4214,11 @@
       <c r="G143">
         <v>251805314</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H143">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -3808,8 +4240,11 @@
       <c r="G144">
         <v>255128076</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H144">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -3831,8 +4266,11 @@
       <c r="G145">
         <v>258383257</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H145">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>1</v>
       </c>
@@ -3854,8 +4292,11 @@
       <c r="G146">
         <v>5323701</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H146">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>1</v>
       </c>
@@ -3877,8 +4318,11 @@
       <c r="G147">
         <v>5409584</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H147">
+        <v>0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>1</v>
       </c>
@@ -3900,8 +4344,11 @@
       <c r="G148">
         <v>5493247</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H148">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>1</v>
       </c>
@@ -3923,8 +4370,11 @@
       <c r="G149">
         <v>5576640</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H149">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -3946,8 +4396,11 @@
       <c r="G150">
         <v>5662199</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H150">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -3969,8 +4422,11 @@
       <c r="G151">
         <v>5751675</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H151">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -3992,8 +4448,11 @@
       <c r="G152">
         <v>5846075</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H152">
+        <v>0.51400000000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -4015,8 +4474,11 @@
       <c r="G153">
         <v>5944950</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H153">
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -4038,8 +4500,11 @@
       <c r="G154">
         <v>6046630</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H154">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>1</v>
       </c>
@@ -4061,8 +4526,11 @@
       <c r="G155">
         <v>6148621</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H155">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -4084,8 +4552,11 @@
       <c r="G156">
         <v>6249168</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H156">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>1</v>
       </c>
@@ -4107,8 +4578,11 @@
       <c r="G157">
         <v>6347564</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H157">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1</v>
       </c>
@@ -4130,8 +4604,11 @@
       <c r="G158">
         <v>6444527</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H158">
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>1</v>
       </c>
@@ -4153,8 +4630,11 @@
       <c r="G159">
         <v>6541302</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H159">
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -4176,8 +4656,11 @@
       <c r="G160">
         <v>6639763</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H160">
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1</v>
       </c>
@@ -4198,6 +4681,9 @@
       </c>
       <c r="G161">
         <v>6741160</v>
+      </c>
+      <c r="H161">
+        <v>0.59799999999999998</v>
       </c>
     </row>
   </sheetData>
